--- a/Team-Data/2015-16/3-13-2015-16.xlsx
+++ b/Team-Data/2015-16/3-13-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,13 +736,13 @@
         <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.576</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -687,37 +754,37 @@
         <v>83.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
         <v>27.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O2" t="n">
         <v>15.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -732,37 +799,37 @@
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>11</v>
@@ -789,22 +856,22 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.585</v>
+        <v>0.591</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,28 +933,28 @@
         <v>39.5</v>
       </c>
       <c r="J3" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M3" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N3" t="n">
         <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
         <v>11.6</v>
@@ -899,16 +966,16 @@
         <v>45</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>5.2</v>
@@ -917,25 +984,25 @@
         <v>22.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
@@ -965,13 +1032,13 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -998,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="BB3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1048,46 +1115,46 @@
         <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>83.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.357</v>
+        <v>0.352</v>
       </c>
       <c r="O4" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P4" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>4</v>
@@ -1099,16 +1166,16 @@
         <v>17.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AB4" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1126,31 +1193,31 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1159,19 +1226,19 @@
         <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.578</v>
+        <v>0.569</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="M5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
         <v>18.9</v>
@@ -1251,10 +1318,10 @@
         <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
         <v>34.9</v>
@@ -1263,13 +1330,13 @@
         <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V5" t="n">
         <v>12.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.3</v>
@@ -1278,40 +1345,40 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>3</v>
@@ -1323,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,19 +1479,19 @@
         <v>38.6</v>
       </c>
       <c r="J6" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
         <v>16.6</v>
@@ -1436,16 +1503,16 @@
         <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
         <v>36.3</v>
       </c>
       <c r="T6" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1457,31 +1524,31 @@
         <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1493,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1502,10 +1569,10 @@
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1523,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>14</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
         <v>46</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.73</v>
+        <v>0.719</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,67 +1661,67 @@
         <v>38.5</v>
       </c>
       <c r="J7" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M7" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T7" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U7" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
         <v>6.8</v>
       </c>
       <c r="X7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC7" t="n">
         <v>6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1669,10 +1736,10 @@
         <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
         <v>9</v>
@@ -1681,19 +1748,19 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
@@ -1708,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>26</v>
@@ -1717,7 +1784,7 @@
         <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.492</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J8" t="n">
         <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O8" t="n">
         <v>18</v>
       </c>
       <c r="P8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
         <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>6.8</v>
@@ -1824,28 +1891,28 @@
         <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1866,13 +1933,13 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
@@ -1884,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.415</v>
+        <v>0.424</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
@@ -1970,43 +2037,43 @@
         <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
         <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>6.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
@@ -2015,19 +2082,19 @@
         <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>9</v>
@@ -2036,10 +2103,10 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2048,22 +2115,22 @@
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2072,13 +2139,13 @@
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
         <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T10" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U10" t="n">
         <v>18.9</v>
@@ -2179,7 +2246,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X10" t="n">
         <v>3.5</v>
@@ -2188,31 +2255,31 @@
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>14</v>
@@ -2221,22 +2288,22 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2254,28 +2321,28 @@
         <v>27</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
         <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.906</v>
+        <v>0.908</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2322,19 +2389,19 @@
         <v>42.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L11" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M11" t="n">
         <v>31</v>
       </c>
       <c r="N11" t="n">
-        <v>0.415</v>
+        <v>0.413</v>
       </c>
       <c r="O11" t="n">
         <v>17.4</v>
@@ -2343,22 +2410,22 @@
         <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="R11" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="T11" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U11" t="n">
         <v>29.1</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -2367,22 +2434,22 @@
         <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB11" t="n">
         <v>115.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2403,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>1</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>18</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>8</v>
@@ -2448,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -2486,40 +2553,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
         <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L12" t="n">
         <v>10.7</v>
       </c>
       <c r="M12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P12" t="n">
         <v>30.4</v>
@@ -2528,16 +2595,16 @@
         <v>0.7</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
         <v>42.7</v>
       </c>
       <c r="U12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
         <v>16.1</v>
@@ -2546,46 +2613,46 @@
         <v>10.2</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z12" t="n">
         <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,7 +2679,7 @@
         <v>28</v>
       </c>
       <c r="AT12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
@@ -2627,7 +2694,7 @@
         <v>14</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -2698,19 +2765,19 @@
         <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R13" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S13" t="n">
         <v>33.7</v>
@@ -2722,31 +2789,31 @@
         <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2758,46 +2825,46 @@
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
         <v>16</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM13" t="n">
         <v>17</v>
       </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>20</v>
-      </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BC13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -2853,31 +2920,31 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.641</v>
+        <v>0.656</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
         <v>0.363</v>
@@ -2886,28 +2953,28 @@
         <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R14" t="n">
         <v>9.1</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
         <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>5.5</v>
@@ -2919,31 +2986,31 @@
         <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.5</v>
+        <v>104.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
         <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2973,13 +3040,13 @@
         <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -3000,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3123,22 @@
         <v>0.418</v>
       </c>
       <c r="L15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.322</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3089,28 +3156,28 @@
         <v>13.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
         <v>4.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="n">
         <v>-9.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3122,7 +3189,7 @@
         <v>29</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
@@ -3134,7 +3201,7 @@
         <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -3149,13 +3216,13 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>21</v>
@@ -3173,16 +3240,16 @@
         <v>24</v>
       </c>
       <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB15" t="n">
         <v>27</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J16" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M16" t="n">
         <v>18.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O16" t="n">
         <v>20.1</v>
@@ -3253,22 +3320,22 @@
         <v>25.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -3313,22 +3380,22 @@
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
@@ -3355,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
         <v>25</v>
@@ -3364,10 +3431,10 @@
         <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
         <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.569</v>
+        <v>0.576</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,19 +3481,19 @@
         <v>37.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.463</v>
       </c>
       <c r="L17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>18.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.326</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
         <v>17.4</v>
@@ -3435,19 +3502,19 @@
         <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S17" t="n">
         <v>34.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V17" t="n">
         <v>14.2</v>
@@ -3459,31 +3526,31 @@
         <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA17" t="n">
         <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3495,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL17" t="n">
         <v>28</v>
@@ -3507,13 +3574,13 @@
         <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>22</v>
@@ -3522,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
         <v>23</v>
@@ -3537,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
         <v>3</v>
@@ -3549,7 +3616,7 @@
         <v>26</v>
       </c>
       <c r="BC17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3581,25 +3648,25 @@
         <v>66</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.439</v>
+        <v>0.424</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
@@ -3608,16 +3675,16 @@
         <v>15.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P18" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.748</v>
+        <v>0.753</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
@@ -3626,52 +3693,52 @@
         <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y18" t="n">
         <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.2</v>
+        <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3686,16 +3753,16 @@
         <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3704,16 +3771,16 @@
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>8</v>
@@ -3722,7 +3789,7 @@
         <v>25</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3790,22 +3857,22 @@
         <v>15.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R19" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S19" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T19" t="n">
         <v>42</v>
@@ -3814,7 +3881,7 @@
         <v>22.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>7.6</v>
@@ -3829,16 +3896,16 @@
         <v>21.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC19" t="n">
         <v>-4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3880,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
         <v>27</v>
@@ -3892,19 +3959,19 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>22</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>23</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" t="n">
-        <v>0.381</v>
+        <v>0.369</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
         <v>8.6</v>
@@ -3972,31 +4039,31 @@
         <v>24.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
         <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.8</v>
@@ -4008,25 +4075,25 @@
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4035,13 +4102,13 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>6</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
@@ -4050,7 +4117,7 @@
         <v>14</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
@@ -4065,19 +4132,19 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>17</v>
@@ -4092,7 +4159,7 @@
         <v>21</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -4139,10 +4206,10 @@
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>83.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.441</v>
@@ -4151,37 +4218,37 @@
         <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T21" t="n">
         <v>44</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.3</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
         <v>5.6</v>
@@ -4190,25 +4257,25 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4217,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
@@ -4235,22 +4302,22 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4268,13 +4335,13 @@
         <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4342,10 +4409,10 @@
         <v>19.7</v>
       </c>
       <c r="P22" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R22" t="n">
         <v>12.9</v>
@@ -4369,7 +4436,7 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>20.6</v>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4402,19 +4469,19 @@
         <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="n">
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
@@ -4435,19 +4502,19 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J23" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
         <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R23" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>33.5</v>
       </c>
       <c r="T23" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>8.199999999999999</v>
@@ -4557,25 +4624,25 @@
         <v>20.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE23" t="n">
         <v>20</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>3</v>
@@ -4596,28 +4663,28 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ23" t="n">
         <v>15</v>
       </c>
       <c r="AR23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS23" t="n">
         <v>15</v>
       </c>
-      <c r="AS23" t="n">
-        <v>16</v>
-      </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
         <v>14</v>
@@ -4638,10 +4705,10 @@
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" t="n">
-        <v>0.138</v>
+        <v>0.136</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J24" t="n">
         <v>82.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O24" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P24" t="n">
         <v>22.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
         <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
         <v>6.3</v>
@@ -4742,13 +4809,13 @@
         <v>19.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4769,7 +4836,7 @@
         <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>12</v>
@@ -4793,7 +4860,7 @@
         <v>24</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="n">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K25" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L25" t="n">
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U25" t="n">
         <v>20.5</v>
       </c>
       <c r="V25" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W25" t="n">
         <v>7.8</v>
@@ -4918,19 +4985,19 @@
         <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA25" t="n">
         <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>28</v>
@@ -4951,10 +5018,10 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
         <v>12</v>
@@ -4963,13 +5030,13 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>9</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX25" t="n">
         <v>27</v>
@@ -5002,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.515</v>
+        <v>0.522</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5055,7 +5122,7 @@
         <v>85.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
         <v>10.5</v>
@@ -5067,19 +5134,19 @@
         <v>0.369</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T26" t="n">
         <v>45.6</v>
@@ -5088,7 +5155,7 @@
         <v>21.3</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.6</v>
@@ -5097,7 +5164,7 @@
         <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
         <v>22</v>
@@ -5106,16 +5173,16 @@
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
@@ -5127,7 +5194,7 @@
         <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>9</v>
@@ -5139,19 +5206,19 @@
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
       </c>
       <c r="AO26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP26" t="n">
         <v>24</v>
       </c>
-      <c r="AP26" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5175,19 +5242,19 @@
         <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
         <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5231,19 +5298,19 @@
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.463</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N27" t="n">
         <v>0.356</v>
@@ -5252,25 +5319,25 @@
         <v>18.8</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.725</v>
       </c>
       <c r="R27" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S27" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
         <v>24.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>8.800000000000001</v>
@@ -5279,10 +5346,10 @@
         <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA27" t="n">
         <v>22.4</v>
@@ -5294,7 +5361,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,25 +5373,25 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5342,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5357,7 +5424,7 @@
         <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
         <v>56</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.862</v>
+        <v>0.848</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N28" t="n">
         <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.803</v>
       </c>
       <c r="R28" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T28" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U28" t="n">
         <v>25</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5497,10 +5564,10 @@
         <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>25</v>
@@ -5512,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
@@ -5533,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>5</v>
@@ -5548,7 +5615,7 @@
         <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
@@ -5604,61 +5671,61 @@
         <v>0.452</v>
       </c>
       <c r="L29" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N29" t="n">
         <v>0.367</v>
       </c>
       <c r="O29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P29" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
         <v>10.1</v>
       </c>
       <c r="S29" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
         <v>18.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
         <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5685,10 +5752,10 @@
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5697,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>20</v>
@@ -5706,13 +5773,13 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>14</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>9</v>
@@ -5730,10 +5797,10 @@
         <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5765,34 +5832,34 @@
         <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>0.477</v>
+        <v>0.462</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
         <v>18.2</v>
@@ -5801,28 +5868,28 @@
         <v>24.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
         <v>32.1</v>
       </c>
       <c r="T30" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U30" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>7.8</v>
       </c>
       <c r="X30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
@@ -5834,16 +5901,16 @@
         <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5852,7 +5919,7 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5861,16 +5928,16 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
         <v>20</v>
       </c>
-      <c r="AL30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>18</v>
-      </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>11</v>
@@ -5879,22 +5946,22 @@
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>15</v>
@@ -5912,7 +5979,7 @@
         <v>15</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
@@ -5944,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.453</v>
+        <v>0.462</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J31" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
         <v>8.5</v>
       </c>
       <c r="M31" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N31" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O31" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P31" t="n">
         <v>22.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T31" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U31" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V31" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W31" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
         <v>27</v>
@@ -6055,19 +6122,19 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>29</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>30</v>
@@ -6088,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6097,7 +6164,7 @@
         <v>13</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2015-16</t>
+          <t>2016-03-13</t>
         </is>
       </c>
     </row>
